--- a/templates/community/MPIMP/Study_MPIMP_Fernie.xlsx
+++ b/templates/community/MPIMP/Study_MPIMP_Fernie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micha\Nextcloud\Data_Plant\Swate_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1457FB-89CB-412F-B3E4-0707F5CDFFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43F3A9F0-6895-4532-8503-B525CF6A5EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study information" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -126,18 +129,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="119">
   <si>
     <t>Source Name</t>
   </si>
   <si>
-    <t>Characteristic [alias]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Term Source REF (DPBO:0002000) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Term Accession Number (DPBO:0002000) </t>
+    <t>Protocol Type</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:1000161)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:1000161)</t>
+  </si>
+  <si>
+    <t>Protocol REF</t>
   </si>
   <si>
     <t>Characteristic [organism]</t>
@@ -194,33 +200,9 @@
     <t>Term Accession Number (DPBO:0000041)</t>
   </si>
   <si>
-    <t>Parameter [Sample Weight]</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Term Source REF (NCIT:C87555)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NCIT:C87555)</t>
-  </si>
-  <si>
     <t>Sample Name</t>
   </si>
   <si>
-    <t>Protocol Type</t>
-  </si>
-  <si>
-    <t>Term Source REF (DPBO:1000161)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (DPBO:1000161)</t>
-  </si>
-  <si>
-    <t>Protocol REF</t>
-  </si>
-  <si>
     <t>growth protocol</t>
   </si>
   <si>
@@ -233,6 +215,21 @@
     <t>growth_protocol.txt</t>
   </si>
   <si>
+    <t>Arabidopsis thaliana</t>
+  </si>
+  <si>
+    <t>NCBITaxon</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_3702</t>
+  </si>
+  <si>
+    <t>Col-0</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/EFO_0005148</t>
+  </si>
+  <si>
     <t>Wild Type</t>
   </si>
   <si>
@@ -242,13 +239,34 @@
     <t>http://purl.obolibrary.org/obo/NCIT_C62195</t>
   </si>
   <si>
-    <t>Arabidopsis thaliana</t>
-  </si>
-  <si>
-    <t>NCBITaxon</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCBITaxon_3702</t>
+    <t>leaf</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PO_0025034</t>
+  </si>
+  <si>
+    <t>greenhouse</t>
+  </si>
+  <si>
+    <t>AGRO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/AGRO_00000363</t>
+  </si>
+  <si>
+    <t>short day length exposure</t>
+  </si>
+  <si>
+    <t>PECO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PECO_0007200</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/EFO_0003790</t>
   </si>
   <si>
     <t>Solanum lycopersicum</t>
@@ -257,189 +275,186 @@
     <t>http://purl.obolibrary.org/obo/NCBITaxon_4081</t>
   </si>
   <si>
+    <t>MoneyMaker</t>
+  </si>
+  <si>
+    <t>user-specific</t>
+  </si>
+  <si>
+    <t>panK4-1</t>
+  </si>
+  <si>
+    <t>fruit</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PO_0009001</t>
+  </si>
+  <si>
+    <t>growth chamber study</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PECO_0007269</t>
+  </si>
+  <si>
+    <t>long day length exposure</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PECO_0007199</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/EFO_0003791</t>
+  </si>
+  <si>
     <t>Phaseolus vulgaris</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NCBITaxon_3885</t>
   </si>
   <si>
+    <t>PDS1-GFP</t>
+  </si>
+  <si>
+    <t>seed</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PO_0009010</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>ENVO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01000352</t>
+  </si>
+  <si>
+    <t>continuous light exposure</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/PECO_0007162</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/EFO_0003792</t>
+  </si>
+  <si>
     <t>Lotus japonicus</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NCBITaxon_34305</t>
   </si>
   <si>
-    <t>Col-0</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/EFO_0005148</t>
-  </si>
-  <si>
-    <t>MoneyMaker</t>
-  </si>
-  <si>
-    <t>user-specific</t>
-  </si>
-  <si>
-    <t>PDS1-GFP</t>
-  </si>
-  <si>
-    <t>leaf</t>
-  </si>
-  <si>
-    <t>PO</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/PO_0025034</t>
-  </si>
-  <si>
-    <t>fruit</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/PO_0009001</t>
-  </si>
-  <si>
-    <t>seed</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/PO_0009010</t>
-  </si>
-  <si>
     <t>root</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/PO_0009005</t>
   </si>
   <si>
-    <t>greenhouse</t>
-  </si>
-  <si>
-    <t>AGRO</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/AGRO_00000363</t>
-  </si>
-  <si>
-    <t>field</t>
-  </si>
-  <si>
-    <t>ENVO</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/ENVO_01000352</t>
-  </si>
-  <si>
-    <t>growth chamber study</t>
-  </si>
-  <si>
-    <t>PECO</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/PECO_0007269</t>
-  </si>
-  <si>
     <t>tissue culture</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/ENVO_02000007</t>
   </si>
   <si>
-    <t>short day length exposure</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/PECO_0007200</t>
-  </si>
-  <si>
-    <t>long day length exposure</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/PECO_0007199</t>
-  </si>
-  <si>
-    <t>continuous light exposure</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/PECO_0007162</t>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>013782f0-a16d-4c1a-8c6c-449ecb57159c</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Study minimal MPIMP Fernie</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Minimal set of study information.</t>
+  </si>
+  <si>
+    <t>Organisation</t>
+  </si>
+  <si>
+    <t>MPIMP</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>annotationTableCleverFrog97</t>
+  </si>
+  <si>
+    <t>#ER list</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>ER Term Accession Number</t>
+  </si>
+  <si>
+    <t>ER Term Source REF</t>
+  </si>
+  <si>
+    <t>#TAGS list</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>plant growth protocol</t>
+  </si>
+  <si>
+    <t>Tags Term Accession Number</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C63536</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_1000164</t>
+  </si>
+  <si>
+    <t>Tags Term Source REF</t>
   </si>
   <si>
     <t>DPBO</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/EFO_0003790</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/EFO_0003791</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/EFO_0003792</t>
-  </si>
-  <si>
-    <t>Solyc10g074590#30</t>
-  </si>
-  <si>
-    <t>panK4-1</t>
-  </si>
-  <si>
-    <t>PDS1-OX1.5</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Organisation</t>
-  </si>
-  <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>#ER list</t>
-  </si>
-  <si>
-    <t>ER</t>
-  </si>
-  <si>
-    <t>ER Term Accession Number</t>
-  </si>
-  <si>
-    <t>ER Term Source REF</t>
-  </si>
-  <si>
-    <t>#TAGS list</t>
-  </si>
-  <si>
-    <t>Tags</t>
-  </si>
-  <si>
-    <t>Tags Term Accession Number</t>
-  </si>
-  <si>
-    <t>Tags Term Source REF</t>
-  </si>
-  <si>
     <t>#AUTHORS list</t>
   </si>
   <si>
     <t>Authors Last Name</t>
   </si>
   <si>
+    <t>Wijesingha Ahchige</t>
+  </si>
+  <si>
     <t>Authors First Name</t>
   </si>
   <si>
+    <t>Micha</t>
+  </si>
+  <si>
     <t>Authors Mid Initials</t>
   </si>
   <si>
     <t>Authors Email</t>
   </si>
   <si>
+    <t>Wijesingha@mpimp-golm.mpg.de</t>
+  </si>
+  <si>
     <t>Authors Phone</t>
   </si>
   <si>
@@ -449,12 +464,21 @@
     <t>Authors Address</t>
   </si>
   <si>
+    <t>Am Mühlenberg 1, 14476 Potsdam-Golm</t>
+  </si>
+  <si>
     <t>Authors Affiliation</t>
   </si>
   <si>
+    <t>Max Planck Institute of Molecular Plant Physiology</t>
+  </si>
+  <si>
     <t>Authors ORCID</t>
   </si>
   <si>
+    <t>0000-0003-3393-4224</t>
+  </si>
+  <si>
     <t>Authors Role</t>
   </si>
   <si>
@@ -462,65 +486,16 @@
   </si>
   <si>
     <t>Authors Role Term Source REF</t>
-  </si>
-  <si>
-    <t>013782f0-a16d-4c1a-8c6c-449ecb57159c</t>
-  </si>
-  <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
-    <t>Study minimal MPIMP Fernie</t>
-  </si>
-  <si>
-    <t>Minimal set of study information.</t>
-  </si>
-  <si>
-    <t>MPIMP</t>
-  </si>
-  <si>
-    <t>annotationTableCleverFrog97</t>
-  </si>
-  <si>
-    <t>Wijesingha Ahchige</t>
-  </si>
-  <si>
-    <t>Micha</t>
-  </si>
-  <si>
-    <t>Wijesingha@mpimp-golm.mpg.de</t>
-  </si>
-  <si>
-    <t>0000-0003-3393-4224</t>
-  </si>
-  <si>
-    <t>Max Planck Institute of Molecular Plant Physiology</t>
-  </si>
-  <si>
-    <t>Am Mühlenberg 1, 14476 Potsdam-Golm</t>
-  </si>
-  <si>
-    <t>study</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C63536</t>
-  </si>
-  <si>
-    <t>plant growth protocol</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/DPBO_1000164</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    <numFmt numFmtId="165" formatCode="0.00\ &quot;milligram&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,12 +524,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -672,11 +641,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -712,30 +680,9 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="23">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00\ &quot;milligram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -823,39 +770,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{23FDC000-57C6-40EE-9BA9-C3A2A229A6B0}" name="annotationTableCleverFrog97" displayName="annotationTableCleverFrog97" ref="A1:AE5" totalsRowShown="0">
-  <autoFilter ref="A1:AE5" xr:uid="{23FDC000-57C6-40EE-9BA9-C3A2A229A6B0}"/>
-  <tableColumns count="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{23FDC000-57C6-40EE-9BA9-C3A2A229A6B0}" name="annotationTableCleverFrog97" displayName="annotationTableCleverFrog97" ref="A1:X5" totalsRowShown="0">
+  <autoFilter ref="A1:X5" xr:uid="{23FDC000-57C6-40EE-9BA9-C3A2A229A6B0}"/>
+  <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{E0C923CC-1073-4DAC-9ACE-2C794CC541E1}" name="Source Name"/>
-    <tableColumn id="6" xr3:uid="{AA76A594-9358-4DB8-8BA7-809BAD0500A7}" name="Protocol Type" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{B4430402-7BDF-4282-BF65-3B4C6529BAA6}" name="Term Source REF (DPBO:1000161)" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{FF60E4DD-341C-4BF3-8D9F-BBAFB24966D4}" name="Term Accession Number (DPBO:1000161)" dataDxfId="27"/>
-    <tableColumn id="34" xr3:uid="{E1BE6C27-5C82-4ADD-9CEB-8C5CF8ABC1D4}" name="Protocol REF" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{6AA47390-369B-4169-BA95-6A1BA7A0E7D3}" name="Characteristic [alias]" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{E0DA7F13-1053-4417-BD7B-B25EE66AC4C4}" name="Term Source REF (DPBO:0002000) " dataDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{521DE857-EFD1-4E3A-A4A3-603F896A13FA}" name="Term Accession Number (DPBO:0002000) " dataDxfId="23"/>
-    <tableColumn id="12" xr3:uid="{419F0DBC-EC33-4A87-B5A5-1E041E919A31}" name="Characteristic [organism]" dataDxfId="22"/>
-    <tableColumn id="13" xr3:uid="{821F9CAC-379D-457F-9776-E5B292EDB692}" name="Term Source REF (OBI:0100026) " dataDxfId="21"/>
-    <tableColumn id="14" xr3:uid="{67A8FBB3-A1A7-4CCA-BA02-A1B6877AC33B}" name="Term Accession Number (OBI:0100026) " dataDxfId="20"/>
-    <tableColumn id="15" xr3:uid="{01D0158A-C10E-4A98-8BED-424E23E39661}" name="Characteristic [genetic population background information]" dataDxfId="19"/>
-    <tableColumn id="16" xr3:uid="{C6E7AE2A-58EC-49AC-AA10-72A347BAF454}" name="Term Source REF (OBI:0001225)" dataDxfId="18"/>
-    <tableColumn id="17" xr3:uid="{89E426E2-615F-46A6-8FBF-4C97357A874A}" name="Term Accession Number (OBI:0001225)" dataDxfId="17"/>
-    <tableColumn id="31" xr3:uid="{07B17E47-C03F-4235-A893-6834F35BCCCB}" name="Characteristic [genotype]" dataDxfId="16"/>
-    <tableColumn id="32" xr3:uid="{68DA96CC-3FA2-4403-AC85-7439B1CD432E}" name="Term Source REF (EFO:0000513)" dataDxfId="15"/>
-    <tableColumn id="33" xr3:uid="{98A5DED7-6E83-41E2-A5EF-7B7793A561CA}" name="Term Accession Number (EFO:0000513)" dataDxfId="14"/>
-    <tableColumn id="18" xr3:uid="{02BAB6E7-07CF-4C28-ABD1-0A08D5EB8FAC}" name="Parameter [organism part]" dataDxfId="13"/>
-    <tableColumn id="19" xr3:uid="{ACD912E4-A164-4ED2-97FA-E797386A14F6}" name="Term Source REF (EFO:0000635)" dataDxfId="12"/>
-    <tableColumn id="20" xr3:uid="{85AE6046-167B-4FB8-A3A7-8215A2EC3992}" name="Term Accession Number (EFO:0000635)" dataDxfId="11"/>
-    <tableColumn id="21" xr3:uid="{E557ADAE-E85D-43AE-A697-9F5C80585F2C}" name="Parameter [growth environment]" dataDxfId="10"/>
-    <tableColumn id="22" xr3:uid="{CFFCB2FA-5576-41C6-8803-AD5AC48DB4F0}" name="Term Source REF (OBI:0000997)" dataDxfId="9"/>
-    <tableColumn id="23" xr3:uid="{538E2128-BF8D-401C-86E2-08E605166BA3}" name="Term Accession Number (OBI:0000997)" dataDxfId="8"/>
-    <tableColumn id="24" xr3:uid="{BA872E07-4D5E-429F-AB7E-BFD79BE0BFA8}" name="Parameter [growth day length]" dataDxfId="7"/>
-    <tableColumn id="25" xr3:uid="{2873C7ED-9E0B-4FC8-BC96-812CB0135C76}" name="Term Source REF (DPBO:0000041)" dataDxfId="6"/>
-    <tableColumn id="26" xr3:uid="{80E62D6E-F225-41DB-A9FB-53F29813F4D7}" name="Term Accession Number (DPBO:0000041)" dataDxfId="5"/>
-    <tableColumn id="27" xr3:uid="{82590610-F791-4172-8218-BA182635652A}" name="Parameter [Sample Weight]" dataDxfId="4"/>
-    <tableColumn id="28" xr3:uid="{69C67438-DDDD-4997-B5F5-301AE2D5E4C2}" name="Unit" dataDxfId="3"/>
-    <tableColumn id="29" xr3:uid="{14E575CD-E236-4D17-AC1A-B8BF10E127C1}" name="Term Source REF (NCIT:C87555)" dataDxfId="2"/>
-    <tableColumn id="30" xr3:uid="{E69E5C63-3F78-4765-BB13-92688E599A4A}" name="Term Accession Number (NCIT:C87555)" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{AA76A594-9358-4DB8-8BA7-809BAD0500A7}" name="Protocol Type" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{B4430402-7BDF-4282-BF65-3B4C6529BAA6}" name="Term Source REF (DPBO:1000161)" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{FF60E4DD-341C-4BF3-8D9F-BBAFB24966D4}" name="Term Accession Number (DPBO:1000161)" dataDxfId="20"/>
+    <tableColumn id="34" xr3:uid="{E1BE6C27-5C82-4ADD-9CEB-8C5CF8ABC1D4}" name="Protocol REF" dataDxfId="19"/>
+    <tableColumn id="12" xr3:uid="{419F0DBC-EC33-4A87-B5A5-1E041E919A31}" name="Characteristic [organism]" dataDxfId="18"/>
+    <tableColumn id="13" xr3:uid="{821F9CAC-379D-457F-9776-E5B292EDB692}" name="Term Source REF (OBI:0100026) " dataDxfId="17"/>
+    <tableColumn id="14" xr3:uid="{67A8FBB3-A1A7-4CCA-BA02-A1B6877AC33B}" name="Term Accession Number (OBI:0100026) " dataDxfId="16"/>
+    <tableColumn id="15" xr3:uid="{01D0158A-C10E-4A98-8BED-424E23E39661}" name="Characteristic [genetic population background information]" dataDxfId="15"/>
+    <tableColumn id="16" xr3:uid="{C6E7AE2A-58EC-49AC-AA10-72A347BAF454}" name="Term Source REF (OBI:0001225)" dataDxfId="14"/>
+    <tableColumn id="17" xr3:uid="{89E426E2-615F-46A6-8FBF-4C97357A874A}" name="Term Accession Number (OBI:0001225)" dataDxfId="13"/>
+    <tableColumn id="31" xr3:uid="{07B17E47-C03F-4235-A893-6834F35BCCCB}" name="Characteristic [genotype]" dataDxfId="12"/>
+    <tableColumn id="32" xr3:uid="{68DA96CC-3FA2-4403-AC85-7439B1CD432E}" name="Term Source REF (EFO:0000513)" dataDxfId="11"/>
+    <tableColumn id="33" xr3:uid="{98A5DED7-6E83-41E2-A5EF-7B7793A561CA}" name="Term Accession Number (EFO:0000513)" dataDxfId="10"/>
+    <tableColumn id="18" xr3:uid="{02BAB6E7-07CF-4C28-ABD1-0A08D5EB8FAC}" name="Parameter [organism part]" dataDxfId="9"/>
+    <tableColumn id="19" xr3:uid="{ACD912E4-A164-4ED2-97FA-E797386A14F6}" name="Term Source REF (EFO:0000635)" dataDxfId="8"/>
+    <tableColumn id="20" xr3:uid="{85AE6046-167B-4FB8-A3A7-8215A2EC3992}" name="Term Accession Number (EFO:0000635)" dataDxfId="7"/>
+    <tableColumn id="21" xr3:uid="{E557ADAE-E85D-43AE-A697-9F5C80585F2C}" name="Parameter [growth environment]" dataDxfId="6"/>
+    <tableColumn id="22" xr3:uid="{CFFCB2FA-5576-41C6-8803-AD5AC48DB4F0}" name="Term Source REF (OBI:0000997)" dataDxfId="5"/>
+    <tableColumn id="23" xr3:uid="{538E2128-BF8D-401C-86E2-08E605166BA3}" name="Term Accession Number (OBI:0000997)" dataDxfId="4"/>
+    <tableColumn id="24" xr3:uid="{BA872E07-4D5E-429F-AB7E-BFD79BE0BFA8}" name="Parameter [growth day length]" dataDxfId="3"/>
+    <tableColumn id="25" xr3:uid="{2873C7ED-9E0B-4FC8-BC96-812CB0135C76}" name="Term Source REF (DPBO:0000041)" dataDxfId="2"/>
+    <tableColumn id="26" xr3:uid="{80E62D6E-F225-41DB-A9FB-53F29813F4D7}" name="Term Accession Number (DPBO:0000041)" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0D32A6B1-1268-4E9C-9832-F20AC17731AE}" name="Sample Name" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1207,47 +1147,51 @@
   <we:properties/>
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
+  </we:extLst>
 </we:webextension>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN5"/>
+  <dimension ref="A1:AG5"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="40" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.42578125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="41.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="57.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="39.140625" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="57.140625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="57.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="39.42578125" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="26" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="26" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="39.140625" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="27" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="27" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="41.140625" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="33.42578125" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="32.140625" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="31" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="31" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="38.140625" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="28.5703125" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="38.140625" hidden="1" customWidth="1"/>
+    <col min="26" max="27" width="28.5703125" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="45.140625" hidden="1" customWidth="1"/>
     <col min="30" max="30" width="15.7109375" hidden="1" customWidth="1"/>
     <col min="31" max="31" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -1255,393 +1199,324 @@
     <col min="33" max="33" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" t="s">
-        <v>18</v>
-      </c>
-      <c r="X1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC1" t="s">
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG2" s="1"/>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AE1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="S3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA2" s="3">
-        <v>50</v>
-      </c>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AN2" s="1"/>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="R3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="S3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="T3" s="2" t="s">
+      <c r="V3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="U3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA3" s="3">
-        <v>51.9</v>
-      </c>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:33">
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="R4" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y4" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="Z4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA4" s="3">
-        <v>50.8</v>
-      </c>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
+      <c r="O5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="R5" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="3">
-        <v>52.6</v>
-      </c>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1656,217 +1531,217 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D743DD9-D012-465A-A25C-4B52AE2B4AB5}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.140625" customWidth="1"/>
     <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="50.1" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B6" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="9"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="8"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="B23" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="4" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="9" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="4" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="4" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="10"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" s="11"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B9" s="9"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="9"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="10"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="10"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" s="11" t="s">
+      <c r="B26" s="8"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="6" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B18" s="9"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20" s="9"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B21" s="9"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B25" s="9"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B26" s="9"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B27" s="12"/>
+      <c r="B27" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/templates/community/MPIMP/Study_MPIMP_Fernie.xlsx
+++ b/templates/community/MPIMP/Study_MPIMP_Fernie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micha\Nextcloud\Data_Plant\Swate_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43F3A9F0-6895-4532-8503-B525CF6A5EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49291A9E-20AC-4F02-B995-A0C9D812EF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="124">
   <si>
     <t>Source Name</t>
   </si>
@@ -164,6 +164,15 @@
     <t>Term Accession Number (OBI:0001225)</t>
   </si>
   <si>
+    <t xml:space="preserve">Characteristic [alias] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Term Source REF (DPBO:0002000) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Term Accession Number (DPBO:0002000) </t>
+  </si>
+  <si>
     <t>Characteristic [genotype]</t>
   </si>
   <si>
@@ -281,6 +290,9 @@
     <t>user-specific</t>
   </si>
   <si>
+    <t>Solyc10g074590#30</t>
+  </si>
+  <si>
     <t>panK4-1</t>
   </si>
   <si>
@@ -309,6 +321,9 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NCBITaxon_3885</t>
+  </si>
+  <si>
+    <t>PDS1-OX1.5</t>
   </si>
   <si>
     <t>PDS1-GFP</t>
@@ -495,7 +510,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,8 +540,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -557,8 +577,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FFE2EFDA"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -636,12 +662,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFA9D08E"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA9D08E"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -675,14 +712,25 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="26">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -770,20 +818,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{23FDC000-57C6-40EE-9BA9-C3A2A229A6B0}" name="annotationTableCleverFrog97" displayName="annotationTableCleverFrog97" ref="A1:X5" totalsRowShown="0">
-  <autoFilter ref="A1:X5" xr:uid="{23FDC000-57C6-40EE-9BA9-C3A2A229A6B0}"/>
-  <tableColumns count="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{23FDC000-57C6-40EE-9BA9-C3A2A229A6B0}" name="annotationTableCleverFrog97" displayName="annotationTableCleverFrog97" ref="A1:AA5" totalsRowShown="0">
+  <autoFilter ref="A1:AA5" xr:uid="{23FDC000-57C6-40EE-9BA9-C3A2A229A6B0}"/>
+  <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{E0C923CC-1073-4DAC-9ACE-2C794CC541E1}" name="Source Name"/>
-    <tableColumn id="6" xr3:uid="{AA76A594-9358-4DB8-8BA7-809BAD0500A7}" name="Protocol Type" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{B4430402-7BDF-4282-BF65-3B4C6529BAA6}" name="Term Source REF (DPBO:1000161)" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{FF60E4DD-341C-4BF3-8D9F-BBAFB24966D4}" name="Term Accession Number (DPBO:1000161)" dataDxfId="20"/>
-    <tableColumn id="34" xr3:uid="{E1BE6C27-5C82-4ADD-9CEB-8C5CF8ABC1D4}" name="Protocol REF" dataDxfId="19"/>
-    <tableColumn id="12" xr3:uid="{419F0DBC-EC33-4A87-B5A5-1E041E919A31}" name="Characteristic [organism]" dataDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{821F9CAC-379D-457F-9776-E5B292EDB692}" name="Term Source REF (OBI:0100026) " dataDxfId="17"/>
-    <tableColumn id="14" xr3:uid="{67A8FBB3-A1A7-4CCA-BA02-A1B6877AC33B}" name="Term Accession Number (OBI:0100026) " dataDxfId="16"/>
-    <tableColumn id="15" xr3:uid="{01D0158A-C10E-4A98-8BED-424E23E39661}" name="Characteristic [genetic population background information]" dataDxfId="15"/>
-    <tableColumn id="16" xr3:uid="{C6E7AE2A-58EC-49AC-AA10-72A347BAF454}" name="Term Source REF (OBI:0001225)" dataDxfId="14"/>
-    <tableColumn id="17" xr3:uid="{89E426E2-615F-46A6-8FBF-4C97357A874A}" name="Term Accession Number (OBI:0001225)" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{AA76A594-9358-4DB8-8BA7-809BAD0500A7}" name="Protocol Type" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{B4430402-7BDF-4282-BF65-3B4C6529BAA6}" name="Term Source REF (DPBO:1000161)" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{FF60E4DD-341C-4BF3-8D9F-BBAFB24966D4}" name="Term Accession Number (DPBO:1000161)" dataDxfId="23"/>
+    <tableColumn id="34" xr3:uid="{E1BE6C27-5C82-4ADD-9CEB-8C5CF8ABC1D4}" name="Protocol REF" dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{419F0DBC-EC33-4A87-B5A5-1E041E919A31}" name="Characteristic [organism]" dataDxfId="21"/>
+    <tableColumn id="13" xr3:uid="{821F9CAC-379D-457F-9776-E5B292EDB692}" name="Term Source REF (OBI:0100026) " dataDxfId="20"/>
+    <tableColumn id="14" xr3:uid="{67A8FBB3-A1A7-4CCA-BA02-A1B6877AC33B}" name="Term Accession Number (OBI:0100026) " dataDxfId="19"/>
+    <tableColumn id="15" xr3:uid="{01D0158A-C10E-4A98-8BED-424E23E39661}" name="Characteristic [genetic population background information]" dataDxfId="18"/>
+    <tableColumn id="16" xr3:uid="{C6E7AE2A-58EC-49AC-AA10-72A347BAF454}" name="Term Source REF (OBI:0001225)" dataDxfId="17"/>
+    <tableColumn id="17" xr3:uid="{89E426E2-615F-46A6-8FBF-4C97357A874A}" name="Term Accession Number (OBI:0001225)" dataDxfId="16"/>
+    <tableColumn id="27" xr3:uid="{B9FBB024-DE2D-4979-9EBE-2C19BD49831D}" name="Characteristic [alias] " dataDxfId="15"/>
+    <tableColumn id="28" xr3:uid="{14CBD517-9CEB-460F-A93C-C3D885F77DF0}" name="Term Source REF (DPBO:0002000) " dataDxfId="14"/>
+    <tableColumn id="29" xr3:uid="{9370E552-E1C9-4B7D-96F4-4FA54A07991A}" name="Term Accession Number (DPBO:0002000) " dataDxfId="13"/>
     <tableColumn id="31" xr3:uid="{07B17E47-C03F-4235-A893-6834F35BCCCB}" name="Characteristic [genotype]" dataDxfId="12"/>
     <tableColumn id="32" xr3:uid="{68DA96CC-3FA2-4403-AC85-7439B1CD432E}" name="Term Source REF (EFO:0000513)" dataDxfId="11"/>
     <tableColumn id="33" xr3:uid="{98A5DED7-6E83-41E2-A5EF-7B7793A561CA}" name="Term Accession Number (EFO:0000513)" dataDxfId="10"/>
@@ -1157,10 +1208,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AJ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1171,35 +1222,36 @@
     <col min="4" max="4" width="40" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="34.140625" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="41.140625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="57.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.140625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="57.140625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.140625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="41.140625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="39.42578125" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="26" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="39.140625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="27" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="34.7109375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="41.7109375" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="41.140625" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="33.42578125" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="32.140625" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="31" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="38.140625" hidden="1" customWidth="1"/>
-    <col min="26" max="27" width="28.5703125" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28.5703125" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.85546875" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="45.140625" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="15.7109375" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="45.140625" hidden="1" customWidth="1"/>
     <col min="33" max="33" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:36">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1272,46 +1324,55 @@
       <c r="X1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:33">
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36">
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>36</v>
@@ -1340,183 +1401,211 @@
       <c r="W2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AG2" s="1"/>
-    </row>
-    <row r="3" spans="1:33">
+      <c r="X2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ2" s="1"/>
+    </row>
+    <row r="3" spans="1:36">
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>49</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
       <c r="O3" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>52</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>58</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="2" t="s">
-        <v>60</v>
+      <c r="L4" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>62</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
       <c r="R4" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>70</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36">
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="P5" s="2" t="s">
+      <c r="L5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q5" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="N5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
       <c r="R5" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1544,202 +1633,202 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="50.1" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B7" s="9"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B8" s="10"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B9" s="8"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B10" s="8"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="5" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B11" s="9"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="5" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B15" s="9"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B18" s="8"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B20" s="8"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B21" s="8"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="4" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B25" s="8"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="4" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B26" s="8"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="6" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B27" s="11"/>
     </row>

--- a/templates/community/MPIMP/Study_MPIMP_Fernie.xlsx
+++ b/templates/community/MPIMP/Study_MPIMP_Fernie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micha\Nextcloud\Data_Plant\Swate_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/SWATE_templates/templates/community/MPIMP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49291A9E-20AC-4F02-B995-A0C9D812EF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A1F459-C600-5044-91DB-3943A25991BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study information" sheetId="1" r:id="rId1"/>
@@ -52,76 +52,157 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{46FF930B-F856-4D3A-9887-2BD3C66050B3}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The unique identifier of this template. It will be auto generated.
 Reply:
     id=013782f0-a16d-4c1a-8c6c-449ecb57159c</t>
+        </r>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{FC566A79-9FE8-418D-8B7B-B6770A6B8EAC}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the Swate template.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A3" authorId="2" shapeId="0" xr:uid="{3757CAF2-E9EE-49D5-B446-EC57B756ED2F}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The current version of this template in SemVer notation.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A4" authorId="3" shapeId="0" xr:uid="{5093855E-7E39-4EDF-B19F-E1084BB5A052}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The description of this template. Use few sentences for succinctness.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A5" authorId="4" shapeId="0" xr:uid="{CD9DC1C6-D371-4C83-ACAE-C05CADE66041}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A6" authorId="5" shapeId="0" xr:uid="{0F7F0E29-8762-44D4-91B7-49B3CC962EDB}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the Swate annotation table in the workbook of the template's excel file.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A7" authorId="6" shapeId="0" xr:uid="{12070F80-173D-4FB7-A427-2AB07177610F}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A11" authorId="7" shapeId="0" xr:uid="{A9947186-A7B4-4708-928E-29AF2F2D116D}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     A list of all tags associated with this template. Tags are realized as Terms.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A15" authorId="8" shapeId="0" xr:uid="{BF277E38-D2CA-480D-A6E8-0CA5B389BCA0}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The author(s) of this template.</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -129,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="121">
   <si>
     <t>Source Name</t>
   </si>
@@ -275,9 +356,6 @@
     <t>http://purl.obolibrary.org/obo/PECO_0007200</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/EFO_0003790</t>
-  </si>
-  <si>
     <t>Solanum lycopersicum</t>
   </si>
   <si>
@@ -314,9 +392,6 @@
     <t>http://purl.obolibrary.org/obo/PECO_0007199</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/EFO_0003791</t>
-  </si>
-  <si>
     <t>Phaseolus vulgaris</t>
   </si>
   <si>
@@ -348,9 +423,6 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/PECO_0007162</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/EFO_0003792</t>
   </si>
   <si>
     <t>Lotus japonicus</t>
@@ -510,7 +582,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,6 +616,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -712,8 +785,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -721,10 +794,10 @@
   </cellStyles>
   <dxfs count="26">
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -824,30 +897,30 @@
     <tableColumn id="1" xr3:uid="{E0C923CC-1073-4DAC-9ACE-2C794CC541E1}" name="Source Name"/>
     <tableColumn id="6" xr3:uid="{AA76A594-9358-4DB8-8BA7-809BAD0500A7}" name="Protocol Type" dataDxfId="25"/>
     <tableColumn id="7" xr3:uid="{B4430402-7BDF-4282-BF65-3B4C6529BAA6}" name="Term Source REF (DPBO:1000161)" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{FF60E4DD-341C-4BF3-8D9F-BBAFB24966D4}" name="Term Accession Number (DPBO:1000161)" dataDxfId="23"/>
-    <tableColumn id="34" xr3:uid="{E1BE6C27-5C82-4ADD-9CEB-8C5CF8ABC1D4}" name="Protocol REF" dataDxfId="22"/>
-    <tableColumn id="12" xr3:uid="{419F0DBC-EC33-4A87-B5A5-1E041E919A31}" name="Characteristic [organism]" dataDxfId="21"/>
-    <tableColumn id="13" xr3:uid="{821F9CAC-379D-457F-9776-E5B292EDB692}" name="Term Source REF (OBI:0100026) " dataDxfId="20"/>
-    <tableColumn id="14" xr3:uid="{67A8FBB3-A1A7-4CCA-BA02-A1B6877AC33B}" name="Term Accession Number (OBI:0100026) " dataDxfId="19"/>
-    <tableColumn id="15" xr3:uid="{01D0158A-C10E-4A98-8BED-424E23E39661}" name="Characteristic [genetic population background information]" dataDxfId="18"/>
-    <tableColumn id="16" xr3:uid="{C6E7AE2A-58EC-49AC-AA10-72A347BAF454}" name="Term Source REF (OBI:0001225)" dataDxfId="17"/>
-    <tableColumn id="17" xr3:uid="{89E426E2-615F-46A6-8FBF-4C97357A874A}" name="Term Accession Number (OBI:0001225)" dataDxfId="16"/>
-    <tableColumn id="27" xr3:uid="{B9FBB024-DE2D-4979-9EBE-2C19BD49831D}" name="Characteristic [alias] " dataDxfId="15"/>
-    <tableColumn id="28" xr3:uid="{14CBD517-9CEB-460F-A93C-C3D885F77DF0}" name="Term Source REF (DPBO:0002000) " dataDxfId="14"/>
-    <tableColumn id="29" xr3:uid="{9370E552-E1C9-4B7D-96F4-4FA54A07991A}" name="Term Accession Number (DPBO:0002000) " dataDxfId="13"/>
-    <tableColumn id="31" xr3:uid="{07B17E47-C03F-4235-A893-6834F35BCCCB}" name="Characteristic [genotype]" dataDxfId="12"/>
-    <tableColumn id="32" xr3:uid="{68DA96CC-3FA2-4403-AC85-7439B1CD432E}" name="Term Source REF (EFO:0000513)" dataDxfId="11"/>
-    <tableColumn id="33" xr3:uid="{98A5DED7-6E83-41E2-A5EF-7B7793A561CA}" name="Term Accession Number (EFO:0000513)" dataDxfId="10"/>
-    <tableColumn id="18" xr3:uid="{02BAB6E7-07CF-4C28-ABD1-0A08D5EB8FAC}" name="Parameter [organism part]" dataDxfId="9"/>
-    <tableColumn id="19" xr3:uid="{ACD912E4-A164-4ED2-97FA-E797386A14F6}" name="Term Source REF (EFO:0000635)" dataDxfId="8"/>
-    <tableColumn id="20" xr3:uid="{85AE6046-167B-4FB8-A3A7-8215A2EC3992}" name="Term Accession Number (EFO:0000635)" dataDxfId="7"/>
-    <tableColumn id="21" xr3:uid="{E557ADAE-E85D-43AE-A697-9F5C80585F2C}" name="Parameter [growth environment]" dataDxfId="6"/>
-    <tableColumn id="22" xr3:uid="{CFFCB2FA-5576-41C6-8803-AD5AC48DB4F0}" name="Term Source REF (OBI:0000997)" dataDxfId="5"/>
-    <tableColumn id="23" xr3:uid="{538E2128-BF8D-401C-86E2-08E605166BA3}" name="Term Accession Number (OBI:0000997)" dataDxfId="4"/>
-    <tableColumn id="24" xr3:uid="{BA872E07-4D5E-429F-AB7E-BFD79BE0BFA8}" name="Parameter [growth day length]" dataDxfId="3"/>
-    <tableColumn id="25" xr3:uid="{2873C7ED-9E0B-4FC8-BC96-812CB0135C76}" name="Term Source REF (DPBO:0000041)" dataDxfId="2"/>
-    <tableColumn id="26" xr3:uid="{80E62D6E-F225-41DB-A9FB-53F29813F4D7}" name="Term Accession Number (DPBO:0000041)" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{0D32A6B1-1268-4E9C-9832-F20AC17731AE}" name="Sample Name" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{FF60E4DD-341C-4BF3-8D9F-BBAFB24966D4}" name="Term Accession Number (DPBO:1000161)" dataDxfId="0"/>
+    <tableColumn id="34" xr3:uid="{E1BE6C27-5C82-4ADD-9CEB-8C5CF8ABC1D4}" name="Protocol REF" dataDxfId="23"/>
+    <tableColumn id="12" xr3:uid="{419F0DBC-EC33-4A87-B5A5-1E041E919A31}" name="Characteristic [organism]" dataDxfId="22"/>
+    <tableColumn id="13" xr3:uid="{821F9CAC-379D-457F-9776-E5B292EDB692}" name="Term Source REF (OBI:0100026) " dataDxfId="21"/>
+    <tableColumn id="14" xr3:uid="{67A8FBB3-A1A7-4CCA-BA02-A1B6877AC33B}" name="Term Accession Number (OBI:0100026) " dataDxfId="20"/>
+    <tableColumn id="15" xr3:uid="{01D0158A-C10E-4A98-8BED-424E23E39661}" name="Characteristic [genetic population background information]" dataDxfId="19"/>
+    <tableColumn id="16" xr3:uid="{C6E7AE2A-58EC-49AC-AA10-72A347BAF454}" name="Term Source REF (OBI:0001225)" dataDxfId="18"/>
+    <tableColumn id="17" xr3:uid="{89E426E2-615F-46A6-8FBF-4C97357A874A}" name="Term Accession Number (OBI:0001225)" dataDxfId="17"/>
+    <tableColumn id="27" xr3:uid="{B9FBB024-DE2D-4979-9EBE-2C19BD49831D}" name="Characteristic [alias] " dataDxfId="16"/>
+    <tableColumn id="28" xr3:uid="{14CBD517-9CEB-460F-A93C-C3D885F77DF0}" name="Term Source REF (DPBO:0002000) " dataDxfId="15"/>
+    <tableColumn id="29" xr3:uid="{9370E552-E1C9-4B7D-96F4-4FA54A07991A}" name="Term Accession Number (DPBO:0002000) " dataDxfId="14"/>
+    <tableColumn id="31" xr3:uid="{07B17E47-C03F-4235-A893-6834F35BCCCB}" name="Characteristic [genotype]" dataDxfId="13"/>
+    <tableColumn id="32" xr3:uid="{68DA96CC-3FA2-4403-AC85-7439B1CD432E}" name="Term Source REF (EFO:0000513)" dataDxfId="12"/>
+    <tableColumn id="33" xr3:uid="{98A5DED7-6E83-41E2-A5EF-7B7793A561CA}" name="Term Accession Number (EFO:0000513)" dataDxfId="11"/>
+    <tableColumn id="18" xr3:uid="{02BAB6E7-07CF-4C28-ABD1-0A08D5EB8FAC}" name="Parameter [organism part]" dataDxfId="10"/>
+    <tableColumn id="19" xr3:uid="{ACD912E4-A164-4ED2-97FA-E797386A14F6}" name="Term Source REF (EFO:0000635)" dataDxfId="9"/>
+    <tableColumn id="20" xr3:uid="{85AE6046-167B-4FB8-A3A7-8215A2EC3992}" name="Term Accession Number (EFO:0000635)" dataDxfId="8"/>
+    <tableColumn id="21" xr3:uid="{E557ADAE-E85D-43AE-A697-9F5C80585F2C}" name="Parameter [growth environment]" dataDxfId="7"/>
+    <tableColumn id="22" xr3:uid="{CFFCB2FA-5576-41C6-8803-AD5AC48DB4F0}" name="Term Source REF (OBI:0000997)" dataDxfId="6"/>
+    <tableColumn id="23" xr3:uid="{538E2128-BF8D-401C-86E2-08E605166BA3}" name="Term Accession Number (OBI:0000997)" dataDxfId="5"/>
+    <tableColumn id="24" xr3:uid="{BA872E07-4D5E-429F-AB7E-BFD79BE0BFA8}" name="Parameter [growth day length]" dataDxfId="4"/>
+    <tableColumn id="25" xr3:uid="{2873C7ED-9E0B-4FC8-BC96-812CB0135C76}" name="Term Source REF (DPBO:0000041)" dataDxfId="3"/>
+    <tableColumn id="26" xr3:uid="{80E62D6E-F225-41DB-A9FB-53F29813F4D7}" name="Term Accession Number (DPBO:0000041)" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{0D32A6B1-1268-4E9C-9832-F20AC17731AE}" name="Sample Name" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1185,7 +1258,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="480" row="3">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="3">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -1210,48 +1283,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="40" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.140625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="41.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="57.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.140625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="41.140625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="39.42578125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.1640625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="41.1640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="50.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.1640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="41.1640625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.5" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="26" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="34.7109375" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="41.7109375" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="41.140625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="33.42578125" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="32.140625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="34.6640625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="41.6640625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="41.1640625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="33.5" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="30" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.1640625" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="31" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="38.140625" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="28.5703125" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.85546875" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="45.140625" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="45.140625" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="38.1640625" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="28.5" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.83203125" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="45.1640625" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="45.1640625" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1334,7 +1407,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
@@ -1412,7 +1485,7 @@
       </c>
       <c r="AJ2" s="1"/>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>27</v>
       </c>
@@ -1420,72 +1493,72 @@
         <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>53</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>40</v>
       </c>
       <c r="T3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="V3" s="2" t="s">
         <v>46</v>
       </c>
       <c r="W3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>46</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
@@ -1493,62 +1566,62 @@
         <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="T4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="W4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="X4" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="Y4" s="2" t="s">
         <v>46</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
@@ -1556,19 +1629,19 @@
         <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1586,22 +1659,22 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S5" s="2" t="s">
         <v>40</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
@@ -1609,9 +1682,15 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{BCE750FE-03D7-2347-8FD2-C254F1E0ED2C}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{C237AB1A-7E13-1340-AF76-81673B13EC3E}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{04991F32-4243-2C48-85F5-558C784F7339}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{55C44BA9-B1A8-9949-A7CD-CC5446A513D8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1620,215 +1699,215 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D743DD9-D012-465A-A25C-4B52AE2B4AB5}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.1640625" customWidth="1"/>
     <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="7" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="8" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="8" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="50.1" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="8" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
+      <c r="B6" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="8" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="4" t="s">
+      <c r="B7" s="9"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="5" t="s">
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="9"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="10"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="4" t="s">
+      <c r="B11" s="9"/>
+    </row>
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="8"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="4" t="s">
+      <c r="B12" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="8"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="5" t="s">
+      <c r="C12" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="9"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="4" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="5" t="s">
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="9"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="4" t="s">
+      <c r="B17" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B16" s="10" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="4" t="s">
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B19" s="12" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="4" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="8"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="4" t="s">
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B21" s="8"/>
+    </row>
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="4" t="s">
+      <c r="B22" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B20" s="8"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="4" t="s">
+    </row>
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="8"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="4" t="s">
+      <c r="B23" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="8" t="s">
+    </row>
+    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="4" t="s">
+      <c r="B24" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B23" s="8" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="4" t="s">
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B26" s="8"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B25" s="8"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B26" s="8"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="6" t="s">
-        <v>123</v>
       </c>
       <c r="B27" s="11"/>
     </row>

--- a/templates/community/MPIMP/Study_MPIMP_Fernie.xlsx
+++ b/templates/community/MPIMP/Study_MPIMP_Fernie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/SWATE_templates/templates/community/MPIMP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\MPIMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A1F459-C600-5044-91DB-3943A25991BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CC3E4B-99AF-450C-BEF1-B08D008428F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study information" sheetId="1" r:id="rId1"/>
@@ -52,157 +52,76 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{46FF930B-F856-4D3A-9887-2BD3C66050B3}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The unique identifier of this template. It will be auto generated.
-Reply:
+Antwort:
     id=013782f0-a16d-4c1a-8c6c-449ecb57159c</t>
-        </r>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{FC566A79-9FE8-418D-8B7B-B6770A6B8EAC}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate template.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A3" authorId="2" shapeId="0" xr:uid="{3757CAF2-E9EE-49D5-B446-EC57B756ED2F}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The current version of this template in SemVer notation.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A4" authorId="3" shapeId="0" xr:uid="{5093855E-7E39-4EDF-B19F-E1084BB5A052}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The description of this template. Use few sentences for succinctness.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A5" authorId="4" shapeId="0" xr:uid="{CD9DC1C6-D371-4C83-ACAE-C05CADE66041}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A6" authorId="5" shapeId="0" xr:uid="{0F7F0E29-8762-44D4-91B7-49B3CC962EDB}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate annotation table in the workbook of the template's excel file.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A7" authorId="6" shapeId="0" xr:uid="{12070F80-173D-4FB7-A427-2AB07177610F}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A11" authorId="7" shapeId="0" xr:uid="{A9947186-A7B4-4708-928E-29AF2F2D116D}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all tags associated with this template. Tags are realized as Terms.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A15" authorId="8" shapeId="0" xr:uid="{BF277E38-D2CA-480D-A6E8-0CA5B389BCA0}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The author(s) of this template.</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -210,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="122">
   <si>
     <t>Source Name</t>
   </si>
@@ -500,24 +419,12 @@
     <t>study</t>
   </si>
   <si>
-    <t>plant growth protocol</t>
-  </si>
-  <si>
     <t>Tags Term Accession Number</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C63536</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/DPBO_1000164</t>
-  </si>
-  <si>
     <t>Tags Term Source REF</t>
   </si>
   <si>
-    <t>DPBO</t>
-  </si>
-  <si>
     <t>#AUTHORS list</t>
   </si>
   <si>
@@ -573,6 +480,21 @@
   </si>
   <si>
     <t>Authors Role Term Source REF</t>
+  </si>
+  <si>
+    <t>NCIT:C63536</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>GO:0040007</t>
+  </si>
+  <si>
+    <t>Plant</t>
+  </si>
+  <si>
+    <t>NCIT:C14258</t>
   </si>
 </sst>
 </file>
@@ -789,15 +711,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="26">
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -897,39 +819,39 @@
     <tableColumn id="1" xr3:uid="{E0C923CC-1073-4DAC-9ACE-2C794CC541E1}" name="Source Name"/>
     <tableColumn id="6" xr3:uid="{AA76A594-9358-4DB8-8BA7-809BAD0500A7}" name="Protocol Type" dataDxfId="25"/>
     <tableColumn id="7" xr3:uid="{B4430402-7BDF-4282-BF65-3B4C6529BAA6}" name="Term Source REF (DPBO:1000161)" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{FF60E4DD-341C-4BF3-8D9F-BBAFB24966D4}" name="Term Accession Number (DPBO:1000161)" dataDxfId="0"/>
-    <tableColumn id="34" xr3:uid="{E1BE6C27-5C82-4ADD-9CEB-8C5CF8ABC1D4}" name="Protocol REF" dataDxfId="23"/>
-    <tableColumn id="12" xr3:uid="{419F0DBC-EC33-4A87-B5A5-1E041E919A31}" name="Characteristic [organism]" dataDxfId="22"/>
-    <tableColumn id="13" xr3:uid="{821F9CAC-379D-457F-9776-E5B292EDB692}" name="Term Source REF (OBI:0100026) " dataDxfId="21"/>
-    <tableColumn id="14" xr3:uid="{67A8FBB3-A1A7-4CCA-BA02-A1B6877AC33B}" name="Term Accession Number (OBI:0100026) " dataDxfId="20"/>
-    <tableColumn id="15" xr3:uid="{01D0158A-C10E-4A98-8BED-424E23E39661}" name="Characteristic [genetic population background information]" dataDxfId="19"/>
-    <tableColumn id="16" xr3:uid="{C6E7AE2A-58EC-49AC-AA10-72A347BAF454}" name="Term Source REF (OBI:0001225)" dataDxfId="18"/>
-    <tableColumn id="17" xr3:uid="{89E426E2-615F-46A6-8FBF-4C97357A874A}" name="Term Accession Number (OBI:0001225)" dataDxfId="17"/>
-    <tableColumn id="27" xr3:uid="{B9FBB024-DE2D-4979-9EBE-2C19BD49831D}" name="Characteristic [alias] " dataDxfId="16"/>
-    <tableColumn id="28" xr3:uid="{14CBD517-9CEB-460F-A93C-C3D885F77DF0}" name="Term Source REF (DPBO:0002000) " dataDxfId="15"/>
-    <tableColumn id="29" xr3:uid="{9370E552-E1C9-4B7D-96F4-4FA54A07991A}" name="Term Accession Number (DPBO:0002000) " dataDxfId="14"/>
-    <tableColumn id="31" xr3:uid="{07B17E47-C03F-4235-A893-6834F35BCCCB}" name="Characteristic [genotype]" dataDxfId="13"/>
-    <tableColumn id="32" xr3:uid="{68DA96CC-3FA2-4403-AC85-7439B1CD432E}" name="Term Source REF (EFO:0000513)" dataDxfId="12"/>
-    <tableColumn id="33" xr3:uid="{98A5DED7-6E83-41E2-A5EF-7B7793A561CA}" name="Term Accession Number (EFO:0000513)" dataDxfId="11"/>
-    <tableColumn id="18" xr3:uid="{02BAB6E7-07CF-4C28-ABD1-0A08D5EB8FAC}" name="Parameter [organism part]" dataDxfId="10"/>
-    <tableColumn id="19" xr3:uid="{ACD912E4-A164-4ED2-97FA-E797386A14F6}" name="Term Source REF (EFO:0000635)" dataDxfId="9"/>
-    <tableColumn id="20" xr3:uid="{85AE6046-167B-4FB8-A3A7-8215A2EC3992}" name="Term Accession Number (EFO:0000635)" dataDxfId="8"/>
-    <tableColumn id="21" xr3:uid="{E557ADAE-E85D-43AE-A697-9F5C80585F2C}" name="Parameter [growth environment]" dataDxfId="7"/>
-    <tableColumn id="22" xr3:uid="{CFFCB2FA-5576-41C6-8803-AD5AC48DB4F0}" name="Term Source REF (OBI:0000997)" dataDxfId="6"/>
-    <tableColumn id="23" xr3:uid="{538E2128-BF8D-401C-86E2-08E605166BA3}" name="Term Accession Number (OBI:0000997)" dataDxfId="5"/>
-    <tableColumn id="24" xr3:uid="{BA872E07-4D5E-429F-AB7E-BFD79BE0BFA8}" name="Parameter [growth day length]" dataDxfId="4"/>
-    <tableColumn id="25" xr3:uid="{2873C7ED-9E0B-4FC8-BC96-812CB0135C76}" name="Term Source REF (DPBO:0000041)" dataDxfId="3"/>
-    <tableColumn id="26" xr3:uid="{80E62D6E-F225-41DB-A9FB-53F29813F4D7}" name="Term Accession Number (DPBO:0000041)" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{0D32A6B1-1268-4E9C-9832-F20AC17731AE}" name="Sample Name" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{FF60E4DD-341C-4BF3-8D9F-BBAFB24966D4}" name="Term Accession Number (DPBO:1000161)" dataDxfId="23"/>
+    <tableColumn id="34" xr3:uid="{E1BE6C27-5C82-4ADD-9CEB-8C5CF8ABC1D4}" name="Protocol REF" dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{419F0DBC-EC33-4A87-B5A5-1E041E919A31}" name="Characteristic [organism]" dataDxfId="21"/>
+    <tableColumn id="13" xr3:uid="{821F9CAC-379D-457F-9776-E5B292EDB692}" name="Term Source REF (OBI:0100026) " dataDxfId="20"/>
+    <tableColumn id="14" xr3:uid="{67A8FBB3-A1A7-4CCA-BA02-A1B6877AC33B}" name="Term Accession Number (OBI:0100026) " dataDxfId="19"/>
+    <tableColumn id="15" xr3:uid="{01D0158A-C10E-4A98-8BED-424E23E39661}" name="Characteristic [genetic population background information]" dataDxfId="18"/>
+    <tableColumn id="16" xr3:uid="{C6E7AE2A-58EC-49AC-AA10-72A347BAF454}" name="Term Source REF (OBI:0001225)" dataDxfId="17"/>
+    <tableColumn id="17" xr3:uid="{89E426E2-615F-46A6-8FBF-4C97357A874A}" name="Term Accession Number (OBI:0001225)" dataDxfId="16"/>
+    <tableColumn id="27" xr3:uid="{B9FBB024-DE2D-4979-9EBE-2C19BD49831D}" name="Characteristic [alias] " dataDxfId="15"/>
+    <tableColumn id="28" xr3:uid="{14CBD517-9CEB-460F-A93C-C3D885F77DF0}" name="Term Source REF (DPBO:0002000) " dataDxfId="14"/>
+    <tableColumn id="29" xr3:uid="{9370E552-E1C9-4B7D-96F4-4FA54A07991A}" name="Term Accession Number (DPBO:0002000) " dataDxfId="13"/>
+    <tableColumn id="31" xr3:uid="{07B17E47-C03F-4235-A893-6834F35BCCCB}" name="Characteristic [genotype]" dataDxfId="12"/>
+    <tableColumn id="32" xr3:uid="{68DA96CC-3FA2-4403-AC85-7439B1CD432E}" name="Term Source REF (EFO:0000513)" dataDxfId="11"/>
+    <tableColumn id="33" xr3:uid="{98A5DED7-6E83-41E2-A5EF-7B7793A561CA}" name="Term Accession Number (EFO:0000513)" dataDxfId="10"/>
+    <tableColumn id="18" xr3:uid="{02BAB6E7-07CF-4C28-ABD1-0A08D5EB8FAC}" name="Parameter [organism part]" dataDxfId="9"/>
+    <tableColumn id="19" xr3:uid="{ACD912E4-A164-4ED2-97FA-E797386A14F6}" name="Term Source REF (EFO:0000635)" dataDxfId="8"/>
+    <tableColumn id="20" xr3:uid="{85AE6046-167B-4FB8-A3A7-8215A2EC3992}" name="Term Accession Number (EFO:0000635)" dataDxfId="7"/>
+    <tableColumn id="21" xr3:uid="{E557ADAE-E85D-43AE-A697-9F5C80585F2C}" name="Parameter [growth environment]" dataDxfId="6"/>
+    <tableColumn id="22" xr3:uid="{CFFCB2FA-5576-41C6-8803-AD5AC48DB4F0}" name="Term Source REF (OBI:0000997)" dataDxfId="5"/>
+    <tableColumn id="23" xr3:uid="{538E2128-BF8D-401C-86E2-08E605166BA3}" name="Term Accession Number (OBI:0000997)" dataDxfId="4"/>
+    <tableColumn id="24" xr3:uid="{BA872E07-4D5E-429F-AB7E-BFD79BE0BFA8}" name="Parameter [growth day length]" dataDxfId="3"/>
+    <tableColumn id="25" xr3:uid="{2873C7ED-9E0B-4FC8-BC96-812CB0135C76}" name="Term Source REF (DPBO:0000041)" dataDxfId="2"/>
+    <tableColumn id="26" xr3:uid="{80E62D6E-F225-41DB-A9FB-53F29813F4D7}" name="Term Accession Number (DPBO:0000041)" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{0D32A6B1-1268-4E9C-9832-F20AC17731AE}" name="Sample Name" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -967,7 +889,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1073,7 +995,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1215,7 +1137,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1287,44 +1209,44 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="40" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.1640625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="41.1640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="41.109375" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="50.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.1640625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="41.1640625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="39.5" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="34.109375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="41.109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.44140625" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="26" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="34.6640625" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="41.6640625" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="41.1640625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="33.5" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="41.109375" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="33.44140625" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="30" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="32.1640625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="32.109375" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="31" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="38.1640625" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="28.5" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.83203125" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="45.1640625" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="28.44140625" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.77734375" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="45.109375" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="45.1640625" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="45.109375" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="18.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1407,7 +1329,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
@@ -1485,7 +1407,7 @@
       </c>
       <c r="AJ2" s="1"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>27</v>
       </c>
@@ -1558,7 +1480,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
@@ -1621,7 +1543,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
@@ -1697,20 +1619,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D743DD9-D012-465A-A25C-4B52AE2B4AB5}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.1640625" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" customWidth="1"/>
     <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>77</v>
       </c>
@@ -1718,7 +1640,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>79</v>
       </c>
@@ -1726,7 +1648,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>81</v>
       </c>
@@ -1734,7 +1656,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>83</v>
       </c>
@@ -1742,7 +1664,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>85</v>
       </c>
@@ -1750,7 +1672,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>87</v>
       </c>
@@ -1758,37 +1680,37 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B7" s="9"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>91</v>
       </c>
       <c r="B9" s="8"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B10" s="8"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B11" s="9"/>
     </row>
-    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>94</v>
       </c>
@@ -1796,118 +1718,120 @@
         <v>95</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="B13" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="B16" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="8" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="B17" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B15" s="9"/>
-    </row>
-    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="B19" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B17" s="8" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B18" s="8"/>
-    </row>
-    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="B21" s="8"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B22" s="8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B20" s="8"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="B23" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="8"/>
-    </row>
-    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B24" s="8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="B26" s="8"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B25" s="8"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B26" s="8"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="B27" s="11"/>
     </row>

--- a/templates/community/MPIMP/Study_MPIMP_Fernie.xlsx
+++ b/templates/community/MPIMP/Study_MPIMP_Fernie.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\MPIMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CC3E4B-99AF-450C-BEF1-B08D008428F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47C5B76-EB97-4DB0-9B0D-83BC1C525C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study information" sheetId="1" r:id="rId1"/>
-    <sheet name="SwateTemplateMetadata" sheetId="5" r:id="rId2"/>
+    <sheet name="isa_template" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
